--- a/certificados_generados/Marina Cayo Saetía/certificado_0001.xlsx
+++ b/certificados_generados/Marina Cayo Saetía/certificado_0001.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="59" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="certifico" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'59'!$A$1:$F$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'certifico'!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -810,7 +810,7 @@
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="3" t="n">
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="F6" s="2" t="n"/>
     </row>
@@ -863,7 +863,9 @@
       </c>
       <c r="C11" s="46" t="n"/>
       <c r="D11" s="45" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="E11" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" s="7" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -962,11 +964,7 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="C20" s="55" t="inlineStr">
-        <is>
-          <t>4,000.00</t>
-        </is>
-      </c>
+      <c r="C20" s="55" t="n"/>
       <c r="D20" s="20" t="n"/>
       <c r="E20" s="19" t="n"/>
       <c r="F20" s="21" t="n"/>
@@ -991,11 +989,7 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="C22" s="23" t="inlineStr">
-        <is>
-          <t>2,000.00</t>
-        </is>
-      </c>
+      <c r="C22" s="23" t="n"/>
       <c r="D22" s="12" t="n"/>
       <c r="E22" s="24" t="n"/>
     </row>
@@ -1034,23 +1028,19 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="49" t="inlineStr">
         <is>
-          <t>ACE</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D26" s="49" t="n"/>
       <c r="E26" s="31" t="n">
         <v>1000</v>
       </c>
-      <c r="F26" s="32" t="inlineStr">
-        <is>
-          <t>9860</t>
-        </is>
-      </c>
+      <c r="F26" s="32" t="inlineStr"/>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="A27" s="49" t="n"/>
@@ -1088,7 +1078,11 @@
     </row>
     <row r="32" ht="18.75" customHeight="1" thickBot="1">
       <c r="B32" s="51" t="n"/>
-      <c r="C32" s="53" t="n"/>
+      <c r="C32" s="53" t="inlineStr">
+        <is>
+          <t>A 37-024-19</t>
+        </is>
+      </c>
       <c r="D32" s="52" t="n"/>
       <c r="E32" s="35" t="inlineStr">
         <is>
